--- a/3/3/1/En UF 2021 - Diaria.xlsx
+++ b/3/3/1/En UF 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>Serie</t>
   </si>
@@ -473,6 +473,72 @@
   </si>
   <si>
     <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
   </si>
 </sst>
 </file>
@@ -830,7 +896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3506,6 +3572,395 @@
         <v>2.2</v>
       </c>
     </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>153</v>
+      </c>
+      <c r="C148">
+        <v>-0.89</v>
+      </c>
+      <c r="D148">
+        <v>0.7</v>
+      </c>
+      <c r="E148">
+        <v>1.6</v>
+      </c>
+      <c r="F148">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>154</v>
+      </c>
+      <c r="C149">
+        <v>-0.92</v>
+      </c>
+      <c r="D149">
+        <v>0.75</v>
+      </c>
+      <c r="E149">
+        <v>1.62</v>
+      </c>
+      <c r="F149">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="C150">
+        <v>-1.19</v>
+      </c>
+      <c r="D150">
+        <v>0.63</v>
+      </c>
+      <c r="E150">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>156</v>
+      </c>
+      <c r="C151">
+        <v>-1.19</v>
+      </c>
+      <c r="D151">
+        <v>0.71</v>
+      </c>
+      <c r="E151">
+        <v>1.61</v>
+      </c>
+      <c r="F151">
+        <v>2.27</v>
+      </c>
+      <c r="G151">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152">
+        <v>-1.19</v>
+      </c>
+      <c r="D152">
+        <v>0.78</v>
+      </c>
+      <c r="E152">
+        <v>1.64</v>
+      </c>
+      <c r="F152">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>158</v>
+      </c>
+      <c r="C153">
+        <v>-1.22</v>
+      </c>
+      <c r="D153">
+        <v>0.75</v>
+      </c>
+      <c r="E153">
+        <v>1.61</v>
+      </c>
+      <c r="F153">
+        <v>2.32</v>
+      </c>
+      <c r="G153">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154">
+        <v>-1.7</v>
+      </c>
+      <c r="C154">
+        <v>-1.23</v>
+      </c>
+      <c r="D154">
+        <v>0.68</v>
+      </c>
+      <c r="E154">
+        <v>1.58</v>
+      </c>
+      <c r="F154">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>160</v>
+      </c>
+      <c r="C155">
+        <v>-1.24</v>
+      </c>
+      <c r="D155">
+        <v>0.61</v>
+      </c>
+      <c r="E155">
+        <v>1.55</v>
+      </c>
+      <c r="F155">
+        <v>2.2</v>
+      </c>
+      <c r="G155">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156">
+        <v>-1.8</v>
+      </c>
+      <c r="C156">
+        <v>-1.34</v>
+      </c>
+      <c r="D156">
+        <v>0.53</v>
+      </c>
+      <c r="E156">
+        <v>1.49</v>
+      </c>
+      <c r="F156">
+        <v>2.14</v>
+      </c>
+      <c r="G156">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>162</v>
+      </c>
+      <c r="C157">
+        <v>-1.4</v>
+      </c>
+      <c r="D157">
+        <v>0.51</v>
+      </c>
+      <c r="E157">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>163</v>
+      </c>
+      <c r="C158">
+        <v>-1.44</v>
+      </c>
+      <c r="D158">
+        <v>0.57</v>
+      </c>
+      <c r="E158">
+        <v>1.5</v>
+      </c>
+      <c r="F158">
+        <v>2.17</v>
+      </c>
+      <c r="G158">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>164</v>
+      </c>
+      <c r="C159">
+        <v>-1.35</v>
+      </c>
+      <c r="D159">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>165</v>
+      </c>
+      <c r="C160">
+        <v>-1.33</v>
+      </c>
+      <c r="D160">
+        <v>0.62</v>
+      </c>
+      <c r="E160">
+        <v>1.62</v>
+      </c>
+      <c r="F160">
+        <v>2.32</v>
+      </c>
+      <c r="G160">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>166</v>
+      </c>
+      <c r="C161">
+        <v>-1.25</v>
+      </c>
+      <c r="D161">
+        <v>0.68</v>
+      </c>
+      <c r="E161">
+        <v>1.67</v>
+      </c>
+      <c r="F161">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>167</v>
+      </c>
+      <c r="C162">
+        <v>-1.2</v>
+      </c>
+      <c r="D162">
+        <v>0.67</v>
+      </c>
+      <c r="E162">
+        <v>1.67</v>
+      </c>
+      <c r="F162">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>168</v>
+      </c>
+      <c r="C163">
+        <v>-1.24</v>
+      </c>
+      <c r="D163">
+        <v>0.63</v>
+      </c>
+      <c r="E163">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>169</v>
+      </c>
+      <c r="C164">
+        <v>-1.28</v>
+      </c>
+      <c r="D164">
+        <v>0.61</v>
+      </c>
+      <c r="E164">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>170</v>
+      </c>
+      <c r="C165">
+        <v>-1.29</v>
+      </c>
+      <c r="D165">
+        <v>0.57</v>
+      </c>
+      <c r="E165">
+        <v>1.51</v>
+      </c>
+      <c r="F165">
+        <v>2.28</v>
+      </c>
+      <c r="G165">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>171</v>
+      </c>
+      <c r="C166">
+        <v>-1.26</v>
+      </c>
+      <c r="D166">
+        <v>0.5</v>
+      </c>
+      <c r="E166">
+        <v>1.45</v>
+      </c>
+      <c r="F166">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>172</v>
+      </c>
+      <c r="C167">
+        <v>-1.32</v>
+      </c>
+      <c r="D167">
+        <v>0.52</v>
+      </c>
+      <c r="E167">
+        <v>1.46</v>
+      </c>
+      <c r="F167">
+        <v>2.25</v>
+      </c>
+      <c r="G167">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>173</v>
+      </c>
+      <c r="C168">
+        <v>-1.1</v>
+      </c>
+      <c r="D168">
+        <v>0.71</v>
+      </c>
+      <c r="E168">
+        <v>1.72</v>
+      </c>
+      <c r="F168">
+        <v>2.4</v>
+      </c>
+      <c r="G168">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>174</v>
+      </c>
+      <c r="C169">
+        <v>-0.83</v>
+      </c>
+      <c r="D169">
+        <v>0.95</v>
+      </c>
+      <c r="E169">
+        <v>1.83</v>
+      </c>
+      <c r="F169">
+        <v>2.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En UF 2021 - Diaria.xlsx
+++ b/3/3/1/En UF 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>Serie</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
   </si>
 </sst>
 </file>
@@ -896,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:G170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3961,6 +3964,26 @@
         <v>2.48</v>
       </c>
     </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>175</v>
+      </c>
+      <c r="C170">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="D170">
+        <v>1.01</v>
+      </c>
+      <c r="E170">
+        <v>1.87</v>
+      </c>
+      <c r="F170">
+        <v>2.48</v>
+      </c>
+      <c r="G170">
+        <v>2.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En UF 2021 - Diaria.xlsx
+++ b/3/3/1/En UF 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>Serie</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
   </si>
 </sst>
 </file>
@@ -899,7 +902,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G170"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3984,6 +3987,20 @@
         <v>2.65</v>
       </c>
     </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>176</v>
+      </c>
+      <c r="C171">
+        <v>-0.61</v>
+      </c>
+      <c r="D171">
+        <v>1.1</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En UF 2021 - Diaria.xlsx
+++ b/3/3/1/En UF 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Serie</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
   </si>
 </sst>
 </file>
@@ -902,7 +905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4001,6 +4004,26 @@
         <v>2</v>
       </c>
     </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="C172">
+        <v>-0.57</v>
+      </c>
+      <c r="D172">
+        <v>1.23</v>
+      </c>
+      <c r="E172">
+        <v>2.05</v>
+      </c>
+      <c r="F172">
+        <v>2.6</v>
+      </c>
+      <c r="G172">
+        <v>2.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En UF 2021 - Diaria.xlsx
+++ b/3/3/1/En UF 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>Serie</t>
   </si>
@@ -548,6 +548,21 @@
   </si>
   <si>
     <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
   </si>
 </sst>
 </file>
@@ -905,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4024,6 +4039,100 @@
         <v>2.71</v>
       </c>
     </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="C173">
+        <v>-0.5</v>
+      </c>
+      <c r="D173">
+        <v>1.36</v>
+      </c>
+      <c r="E173">
+        <v>2.14</v>
+      </c>
+      <c r="F173">
+        <v>2.55</v>
+      </c>
+      <c r="G173">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174">
+        <v>-1.15</v>
+      </c>
+      <c r="C174">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="D174">
+        <v>1.67</v>
+      </c>
+      <c r="E174">
+        <v>2.34</v>
+      </c>
+      <c r="F174">
+        <v>2.61</v>
+      </c>
+      <c r="G174">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>180</v>
+      </c>
+      <c r="C175">
+        <v>-0.58</v>
+      </c>
+      <c r="D175">
+        <v>1.71</v>
+      </c>
+      <c r="E175">
+        <v>2.39</v>
+      </c>
+      <c r="F175">
+        <v>2.66</v>
+      </c>
+      <c r="G175">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>181</v>
+      </c>
+      <c r="C176">
+        <v>-0.57</v>
+      </c>
+      <c r="D176">
+        <v>1.52</v>
+      </c>
+      <c r="E176">
+        <v>2.14</v>
+      </c>
+      <c r="G176">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>182</v>
+      </c>
+      <c r="C177">
+        <v>-0.62</v>
+      </c>
+      <c r="D177">
+        <v>1.34</v>
+      </c>
+      <c r="E177">
+        <v>2.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En UF 2021 - Diaria.xlsx
+++ b/3/3/1/En UF 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Serie</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
   </si>
 </sst>
 </file>
@@ -920,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4133,6 +4136,20 @@
         <v>2.01</v>
       </c>
     </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>183</v>
+      </c>
+      <c r="C178">
+        <v>-0.66</v>
+      </c>
+      <c r="D178">
+        <v>1.12</v>
+      </c>
+      <c r="E178">
+        <v>1.82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En UF 2021 - Diaria.xlsx
+++ b/3/3/1/En UF 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Serie</t>
   </si>
@@ -566,6 +566,33 @@
   </si>
   <si>
     <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
   </si>
 </sst>
 </file>
@@ -923,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G178"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4122,7 +4149,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>182</v>
       </c>
@@ -4136,7 +4163,7 @@
         <v>2.01</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>183</v>
       </c>
@@ -4148,6 +4175,168 @@
       </c>
       <c r="E178">
         <v>1.82</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>184</v>
+      </c>
+      <c r="C179">
+        <v>-0.75</v>
+      </c>
+      <c r="D179">
+        <v>1.17</v>
+      </c>
+      <c r="E179">
+        <v>1.91</v>
+      </c>
+      <c r="G179">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>185</v>
+      </c>
+      <c r="C180">
+        <v>-0.74</v>
+      </c>
+      <c r="D180">
+        <v>1.17</v>
+      </c>
+      <c r="E180">
+        <v>1.91</v>
+      </c>
+      <c r="F180">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>186</v>
+      </c>
+      <c r="C181">
+        <v>-0.63</v>
+      </c>
+      <c r="D181">
+        <v>1.15</v>
+      </c>
+      <c r="E181">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>187</v>
+      </c>
+      <c r="C182">
+        <v>-0.61</v>
+      </c>
+      <c r="D182">
+        <v>1.25</v>
+      </c>
+      <c r="E182">
+        <v>1.77</v>
+      </c>
+      <c r="F182">
+        <v>2.4</v>
+      </c>
+      <c r="G182">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>188</v>
+      </c>
+      <c r="C183">
+        <v>-0.44</v>
+      </c>
+      <c r="D183">
+        <v>1.33</v>
+      </c>
+      <c r="E183">
+        <v>1.83</v>
+      </c>
+      <c r="F183">
+        <v>2.39</v>
+      </c>
+      <c r="G183">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>189</v>
+      </c>
+      <c r="C184">
+        <v>-0.39</v>
+      </c>
+      <c r="D184">
+        <v>1.44</v>
+      </c>
+      <c r="E184">
+        <v>1.97</v>
+      </c>
+      <c r="F184">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>190</v>
+      </c>
+      <c r="D185">
+        <v>1.61</v>
+      </c>
+      <c r="E185">
+        <v>2.12</v>
+      </c>
+      <c r="F185">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>191</v>
+      </c>
+      <c r="B186">
+        <v>-0.82</v>
+      </c>
+      <c r="C186">
+        <v>-0.45</v>
+      </c>
+      <c r="D186">
+        <v>1.61</v>
+      </c>
+      <c r="E186">
+        <v>2.14</v>
+      </c>
+      <c r="F186">
+        <v>2.52</v>
+      </c>
+      <c r="G186">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>192</v>
+      </c>
+      <c r="C187">
+        <v>0.09</v>
+      </c>
+      <c r="D187">
+        <v>1.66</v>
+      </c>
+      <c r="E187">
+        <v>2.16</v>
+      </c>
+      <c r="F187">
+        <v>2.58</v>
+      </c>
+      <c r="G187">
+        <v>2.66</v>
       </c>
     </row>
   </sheetData>

--- a/3/3/1/En UF 2021 - Diaria.xlsx
+++ b/3/3/1/En UF 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>Serie</t>
   </si>
@@ -593,6 +593,12 @@
   </si>
   <si>
     <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -950,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G187"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4339,6 +4345,43 @@
         <v>2.66</v>
       </c>
     </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>193</v>
+      </c>
+      <c r="C188">
+        <v>-0.02</v>
+      </c>
+      <c r="D188">
+        <v>1.53</v>
+      </c>
+      <c r="E188">
+        <v>2.11</v>
+      </c>
+      <c r="G188">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>194</v>
+      </c>
+      <c r="C189">
+        <v>0.11</v>
+      </c>
+      <c r="D189">
+        <v>1.67</v>
+      </c>
+      <c r="E189">
+        <v>2.19</v>
+      </c>
+      <c r="F189">
+        <v>2.6</v>
+      </c>
+      <c r="G189">
+        <v>2.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En UF 2021 - Diaria.xlsx
+++ b/3/3/1/En UF 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>Serie</t>
   </si>
@@ -599,6 +599,12 @@
   </si>
   <si>
     <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
   </si>
 </sst>
 </file>
@@ -956,7 +962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G189"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4382,6 +4388,46 @@
         <v>2.7</v>
       </c>
     </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>195</v>
+      </c>
+      <c r="C190">
+        <v>0.26</v>
+      </c>
+      <c r="D190">
+        <v>1.92</v>
+      </c>
+      <c r="E190">
+        <v>2.43</v>
+      </c>
+      <c r="F190">
+        <v>2.73</v>
+      </c>
+      <c r="G190">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>196</v>
+      </c>
+      <c r="C191">
+        <v>0.27</v>
+      </c>
+      <c r="D191">
+        <v>2.04</v>
+      </c>
+      <c r="E191">
+        <v>2.66</v>
+      </c>
+      <c r="F191">
+        <v>2.84</v>
+      </c>
+      <c r="G191">
+        <v>2.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En UF 2021 - Diaria.xlsx
+++ b/3/3/1/En UF 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>Serie</t>
   </si>
@@ -605,6 +605,12 @@
   </si>
   <si>
     <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
   </si>
 </sst>
 </file>
@@ -962,7 +968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4428,6 +4434,43 @@
         <v>2.9</v>
       </c>
     </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>197</v>
+      </c>
+      <c r="C192">
+        <v>0.32</v>
+      </c>
+      <c r="D192">
+        <v>2.32</v>
+      </c>
+      <c r="E192">
+        <v>2.92</v>
+      </c>
+      <c r="F192">
+        <v>3.06</v>
+      </c>
+      <c r="G192">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>198</v>
+      </c>
+      <c r="C193">
+        <v>0.32</v>
+      </c>
+      <c r="D193">
+        <v>2.42</v>
+      </c>
+      <c r="E193">
+        <v>3.1</v>
+      </c>
+      <c r="G193">
+        <v>3.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En UF 2021 - Diaria.xlsx
+++ b/3/3/1/En UF 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Serie</t>
   </si>
@@ -611,6 +611,18 @@
   </si>
   <si>
     <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
   </si>
 </sst>
 </file>
@@ -968,7 +980,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4471,6 +4483,77 @@
         <v>3.39</v>
       </c>
     </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>199</v>
+      </c>
+      <c r="C194">
+        <v>0.32</v>
+      </c>
+      <c r="D194">
+        <v>2.69</v>
+      </c>
+      <c r="E194">
+        <v>3.33</v>
+      </c>
+      <c r="F194">
+        <v>3.5</v>
+      </c>
+      <c r="G194">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>200</v>
+      </c>
+      <c r="C195">
+        <v>0.6</v>
+      </c>
+      <c r="D195">
+        <v>2.88</v>
+      </c>
+      <c r="E195">
+        <v>3.52</v>
+      </c>
+      <c r="G195">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>201</v>
+      </c>
+      <c r="C196">
+        <v>0.62</v>
+      </c>
+      <c r="D196">
+        <v>2.92</v>
+      </c>
+      <c r="E196">
+        <v>3.58</v>
+      </c>
+      <c r="F196">
+        <v>3.8</v>
+      </c>
+      <c r="G196">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>202</v>
+      </c>
+      <c r="C197">
+        <v>0.54</v>
+      </c>
+      <c r="D197">
+        <v>2.75</v>
+      </c>
+      <c r="E197">
+        <v>3.15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En UF 2021 - Diaria.xlsx
+++ b/3/3/1/En UF 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>Serie</t>
   </si>
@@ -623,6 +623,36 @@
   </si>
   <si>
     <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
   </si>
 </sst>
 </file>
@@ -980,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:G207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4554,6 +4584,185 @@
         <v>3.15</v>
       </c>
     </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>203</v>
+      </c>
+      <c r="C198">
+        <v>0.54</v>
+      </c>
+      <c r="D198">
+        <v>2.55</v>
+      </c>
+      <c r="E198">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>204</v>
+      </c>
+      <c r="C199">
+        <v>0.45</v>
+      </c>
+      <c r="D199">
+        <v>2.76</v>
+      </c>
+      <c r="E199">
+        <v>3.27</v>
+      </c>
+      <c r="G199">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>205</v>
+      </c>
+      <c r="C200">
+        <v>0.42</v>
+      </c>
+      <c r="D200">
+        <v>2.65</v>
+      </c>
+      <c r="E200">
+        <v>3.23</v>
+      </c>
+      <c r="G200">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>206</v>
+      </c>
+      <c r="C201">
+        <v>0.45</v>
+      </c>
+      <c r="D201">
+        <v>2.62</v>
+      </c>
+      <c r="E201">
+        <v>3.14</v>
+      </c>
+      <c r="F201">
+        <v>3.5</v>
+      </c>
+      <c r="G201">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>207</v>
+      </c>
+      <c r="C202">
+        <v>0.45</v>
+      </c>
+      <c r="D202">
+        <v>2.67</v>
+      </c>
+      <c r="E202">
+        <v>3.2</v>
+      </c>
+      <c r="F202">
+        <v>3.55</v>
+      </c>
+      <c r="G202">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>208</v>
+      </c>
+      <c r="C203">
+        <v>0.42</v>
+      </c>
+      <c r="D203">
+        <v>2.65</v>
+      </c>
+      <c r="E203">
+        <v>3.2</v>
+      </c>
+      <c r="G203">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>209</v>
+      </c>
+      <c r="C204">
+        <v>0.28</v>
+      </c>
+      <c r="D204">
+        <v>2.39</v>
+      </c>
+      <c r="E204">
+        <v>2.84</v>
+      </c>
+      <c r="F204">
+        <v>3.3</v>
+      </c>
+      <c r="G204">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>210</v>
+      </c>
+      <c r="C205">
+        <v>0.22</v>
+      </c>
+      <c r="D205">
+        <v>2.13</v>
+      </c>
+      <c r="E205">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>211</v>
+      </c>
+      <c r="C206">
+        <v>0.02</v>
+      </c>
+      <c r="D206">
+        <v>2.16</v>
+      </c>
+      <c r="E206">
+        <v>2.52</v>
+      </c>
+      <c r="F206">
+        <v>3.13</v>
+      </c>
+      <c r="G206">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>212</v>
+      </c>
+      <c r="C207">
+        <v>-0.08</v>
+      </c>
+      <c r="D207">
+        <v>2.03</v>
+      </c>
+      <c r="E207">
+        <v>2.53</v>
+      </c>
+      <c r="F207">
+        <v>3.13</v>
+      </c>
+      <c r="G207">
+        <v>3.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En UF 2021 - Diaria.xlsx
+++ b/3/3/1/En UF 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Serie</t>
   </si>
@@ -653,6 +653,12 @@
   </si>
   <si>
     <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G207"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4763,6 +4769,37 @@
         <v>3.2</v>
       </c>
     </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>213</v>
+      </c>
+      <c r="C208">
+        <v>-0.1</v>
+      </c>
+      <c r="D208">
+        <v>2.11</v>
+      </c>
+      <c r="E208">
+        <v>2.55</v>
+      </c>
+      <c r="F208">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>214</v>
+      </c>
+      <c r="C209">
+        <v>-0.1</v>
+      </c>
+      <c r="D209">
+        <v>2.14</v>
+      </c>
+      <c r="E209">
+        <v>2.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En UF 2021 - Diaria.xlsx
+++ b/3/3/1/En UF 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>Serie</t>
   </si>
@@ -659,6 +659,9 @@
   </si>
   <si>
     <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4800,6 +4803,20 @@
         <v>2.54</v>
       </c>
     </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>215</v>
+      </c>
+      <c r="C210">
+        <v>-0.14</v>
+      </c>
+      <c r="D210">
+        <v>2.14</v>
+      </c>
+      <c r="E210">
+        <v>2.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En UF 2021 - Diaria.xlsx
+++ b/3/3/1/En UF 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t>Serie</t>
   </si>
@@ -662,6 +662,9 @@
   </si>
   <si>
     <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4789,7 +4792,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>214</v>
       </c>
@@ -4803,7 +4806,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>215</v>
       </c>
@@ -4815,6 +4818,26 @@
       </c>
       <c r="E210">
         <v>2.54</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>216</v>
+      </c>
+      <c r="C211">
+        <v>-0.22</v>
+      </c>
+      <c r="D211">
+        <v>2.13</v>
+      </c>
+      <c r="E211">
+        <v>2.55</v>
+      </c>
+      <c r="F211">
+        <v>3.13</v>
+      </c>
+      <c r="G211">
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>

--- a/3/3/1/En UF 2021 - Diaria.xlsx
+++ b/3/3/1/En UF 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>Serie</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G211"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4840,6 +4843,23 @@
         <v>3.2</v>
       </c>
     </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>217</v>
+      </c>
+      <c r="C212">
+        <v>-0.18</v>
+      </c>
+      <c r="D212">
+        <v>2.12</v>
+      </c>
+      <c r="E212">
+        <v>2.55</v>
+      </c>
+      <c r="F212">
+        <v>3.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En UF 2021 - Diaria.xlsx
+++ b/3/3/1/En UF 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>Serie</t>
   </si>
@@ -668,6 +668,9 @@
   </si>
   <si>
     <t>05-11-2021</t>
+  </si>
+  <si>
+    <t>08-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4860,6 +4863,20 @@
         <v>3.13</v>
       </c>
     </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>218</v>
+      </c>
+      <c r="C213">
+        <v>-0.23</v>
+      </c>
+      <c r="D213">
+        <v>2.08</v>
+      </c>
+      <c r="E213">
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
